--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_015.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_015.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
-  </si>
-  <si>
-    <t>(295006AK2.05) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD mechanism</t>
-  </si>
-  <si>
-    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
-  </si>
-  <si>
-    <t>(295037EA1.18) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RPIS</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AK2.05) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
+  </si>
+  <si>
+    <t>(600000AA1.01) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Respirator air pack</t>
+  </si>
+  <si>
+    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
+  </si>
+  <si>
+    <t>(295037EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cold shutdown boron weight</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295004AK2.03) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295030EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) NPSH/vortex limits</t>
+  </si>
+  <si>
+    <t>(295026EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) LPCS</t>
   </si>
   <si>
     <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
   </si>
   <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295005AK2.11) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295025EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Isolation condenser initiation (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295030EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) ECCSs</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295038EK2.08) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(500000EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295033EK2.07) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required for adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295034EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295012AA1.03) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295017AA2.03) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(259002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Water level measurement</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(510000A3.01) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts</t>
-  </si>
-  <si>
-    <t>(239002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(209001K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Pump motor cooler(s)</t>
-  </si>
-  <si>
-    <t>(205000K4.02) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High pressure isolation</t>
-  </si>
-  <si>
-    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(215003A4.03) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM range switches</t>
-  </si>
-  <si>
-    <t>(209002K2.03) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(217000A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of vacuum pump</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291007K1.02) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reason for sampling inlet and outlet of demineralizer</t>
-  </si>
-  <si>
-    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(262001A3.06) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Tap changers</t>
-  </si>
-  <si>
-    <t>(215005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Control rod block status</t>
-  </si>
-  <si>
-    <t>(215004K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
-  </si>
-  <si>
-    <t>(264000K4.08) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic startup</t>
-  </si>
-  <si>
-    <t>(400000K3.06) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Recirculation system</t>
-  </si>
-  <si>
-    <t>(218000A4.02) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic initiation</t>
-  </si>
-  <si>
-    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
+    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(700000AK2.08) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(295003AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Reactor cooldown</t>
+  </si>
+  <si>
+    <t>(295021AA1.03) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Component cooling water systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(295008AA1.06) Ability to operate and/or monitor the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) HPCS</t>
+  </si>
+  <si>
+    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
+  </si>
+  <si>
+    <t>(295033EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295036EK2.03) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
+  </si>
+  <si>
+    <t>(203000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment</t>
+  </si>
+  <si>
+    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
+  </si>
+  <si>
+    <t>(264000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Fuel consumption rate</t>
+  </si>
+  <si>
+    <t>(400000A2.03) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High/low CCW temperature</t>
+  </si>
+  <si>
+    <t>(261000A3.02) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Fan start</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(239002K4.10) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Methods for determining position of SRV</t>
+  </si>
+  <si>
+    <t>(215004K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(215005K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+  </si>
+  <si>
+    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(259002A4.11) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) High-level lockout reset controls</t>
+  </si>
+  <si>
+    <t>(263000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Battery charging/discharging rate</t>
+  </si>
+  <si>
+    <t>(212000A2.08) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor level</t>
+  </si>
+  <si>
+    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
+  </si>
+  <si>
+    <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
+  </si>
+  <si>
+    <t>(209002K4.07) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override of reactor water level interlock</t>
+  </si>
+  <si>
+    <t>(217000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Turbine control failure</t>
+  </si>
+  <si>
+    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291004K1.01) PUMPS (CFR: 41.3) (CENTRIFUGAL) Identification, symptoms, and consequences of cavitation</t>
+  </si>
+  <si>
+    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(203000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization logic</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(264000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400000A2.07) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(204000K2.01) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(223001K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment</t>
+  </si>
+  <si>
+    <t>(239003A4.04) Ability to manually operate and/or monitor the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Dilution air flows</t>
+  </si>
+  <si>
+    <t>(239001A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Main steam flow</t>
+  </si>
+  <si>
+    <t>(288000A2.05) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Extreme outside weather conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(241000A3.11) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Combined intermediate valve operation </t>
+  </si>
+  <si>
+    <t>(226001K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Containment spray initiation pressure limit</t>
+  </si>
+  <si>
+    <t>(510001K4.02) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Cooling tower cold weather operations</t>
+  </si>
+  <si>
+    <t>(259001K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) DC electrical power</t>
+  </si>
+  <si>
+    <t>(256000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 CDS) CONDENSATE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RHR (LPCI)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(293008K1.32) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe core bypass flow</t>
+  </si>
+  <si>
+    <t>(293006K1.12) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define pump shutoff head, pump runout, and axial thrust</t>
+  </si>
+  <si>
+    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295017AA2.04) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
   </si>
   <si>
-    <t>(259002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Controller operation</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(261000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(223001K2.10) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Containment/drywell chillers</t>
-  </si>
-  <si>
-    <t>(288000A2.06) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Secondary containment differential pressure malfunction</t>
-  </si>
-  <si>
-    <t>(286000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Effect of water spray on electrical components</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (291002K1.09) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Modes of failure</t>
-  </si>
-  <si>
-    <t>(268000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 RW) RADWASTE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fuel pool</t>
-  </si>
-  <si>
-    <t>(256000A3.10) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) Pump trips</t>
-  </si>
-  <si>
-    <t>(215001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Area radiation levels</t>
-  </si>
-  <si>
-    <t>(241000K6.25) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.7 / 45.7) Reactor startup</t>
-  </si>
-  <si>
-    <t>(290001K4.03) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Fluid leakage collection</t>
-  </si>
-  <si>
-    <t>(239001K3.16) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Safety relief valves</t>
-  </si>
-  <si>
-    <t>(245000A4.06) Ability to manually operate and/or monitor the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine speed</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215001A2.04) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(216000A2.01) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Detector malfunctions </t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.01) CONTROL RODS (CFR: 41.1) Relate notch and rod position</t>
-  </si>
-  <si>
-    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
-  </si>
-  <si>
-    <t>(292003K1.09) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define doubling time and calculate it using the power</t>
-  </si>
-  <si>
-    <t>(293009K1.09) CORE THERMAL LIMITS (CFR: 41.14) (LHGR) Define FLPD and MFLPD</t>
-  </si>
-  <si>
-    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
-  </si>
-  <si>
-    <t>(293007K1.13) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Calculate core thermal power using a simplified heat</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(226001A2.02) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump(s) trips</t>
-  </si>
-  <si>
-    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239003A2.04) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Outboard system logic failure</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>K4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
     <t>295018</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>500000</t>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295014</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295008</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>295017</t>
   </si>
   <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>256000</t>
+    <t>295013</t>
   </si>
   <si>
     <t>215001</t>
   </si>
   <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>239003</t>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>216000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="s">
         <v>114</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
         <v>108</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>114</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D62" t="s">
         <v>114</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
